--- a/Bill of Materials Final Project.xlsx
+++ b/Bill of Materials Final Project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Item</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Xbee Wireless</t>
+  </si>
+  <si>
+    <t>Plastic for 3D Printer</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -465,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H17" activeCellId="1" sqref="H14 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,9 +493,10 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -502,8 +518,11 @@
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -526,8 +545,11 @@
         <f>(E2 * F2)</f>
         <v>18.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -550,21 +572,33 @@
         <f>(E3 * F3)</f>
         <v>149.85000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G7" si="0">(E4 * F4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -574,8 +608,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -586,8 +623,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -598,20 +636,61 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <f>SUM(G2:G7)</f>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8:G10" si="1">(E8 * F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <f>SUM(G2:G10)</f>
         <v>168.05</v>
       </c>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
